--- a/teaching/traditional_assets/database/data/japan/japan_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.02705</v>
+        <v>-0.04330000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.0692</v>
+        <v>-0.03150000000000001</v>
       </c>
       <c r="G2">
-        <v>0.0960703134263468</v>
+        <v>0.08759147912729771</v>
       </c>
       <c r="H2">
-        <v>0.0960703134263468</v>
+        <v>0.08749355780793677</v>
       </c>
       <c r="I2">
-        <v>0.08068408050324793</v>
+        <v>0.05997315660726827</v>
       </c>
       <c r="J2">
-        <v>0.05886198740394853</v>
+        <v>0.04916237863417025</v>
       </c>
       <c r="K2">
-        <v>63.382</v>
+        <v>81.31</v>
       </c>
       <c r="L2">
-        <v>0.06262795936919489</v>
+        <v>0.06984195155471569</v>
       </c>
       <c r="M2">
-        <v>14.87882</v>
+        <v>20.62796</v>
       </c>
       <c r="N2">
-        <v>0.01704449332141957</v>
+        <v>0.02063208641728346</v>
       </c>
       <c r="O2">
-        <v>0.2347483512669212</v>
+        <v>0.2536952404378305</v>
       </c>
       <c r="P2">
-        <v>6.59382</v>
+        <v>19.66096</v>
       </c>
       <c r="Q2">
-        <v>0.007553577565468417</v>
+        <v>0.01966489297859572</v>
       </c>
       <c r="R2">
-        <v>0.1040330062162759</v>
+        <v>0.2418024843192719</v>
       </c>
       <c r="S2">
-        <v>8.285</v>
+        <v>0.9670000000000005</v>
       </c>
       <c r="T2">
-        <v>0.5568317917684333</v>
+        <v>0.04687812076424428</v>
       </c>
       <c r="U2">
-        <v>297.553</v>
+        <v>392.3</v>
       </c>
       <c r="V2">
-        <v>0.3408630604623456</v>
+        <v>0.3923784756951391</v>
       </c>
       <c r="W2">
-        <v>0.1241935483870968</v>
+        <v>0.1426665670079976</v>
       </c>
       <c r="X2">
-        <v>0.05138016052159618</v>
+        <v>0.04592557063232532</v>
       </c>
       <c r="Y2">
-        <v>0.0728133878655006</v>
+        <v>0.09674099637567227</v>
       </c>
       <c r="Z2">
-        <v>6.052385180527173</v>
+        <v>3.974514826613329</v>
       </c>
       <c r="AA2">
-        <v>0.2899595412139511</v>
+        <v>0.2183702323550416</v>
       </c>
       <c r="AB2">
-        <v>0.05076341352027228</v>
+        <v>0.04491047473445834</v>
       </c>
       <c r="AC2">
-        <v>0.2393390499780337</v>
+        <v>0.1733695529513009</v>
       </c>
       <c r="AD2">
-        <v>136.73</v>
+        <v>156.7</v>
       </c>
       <c r="AE2">
-        <v>0.9724158374648572</v>
+        <v>0.02125538909135998</v>
       </c>
       <c r="AF2">
-        <v>137.7024158374649</v>
+        <v>156.7212553890914</v>
       </c>
       <c r="AG2">
-        <v>-159.8505841625351</v>
+        <v>-235.5787446109086</v>
       </c>
       <c r="AH2">
-        <v>0.1362523615470446</v>
+        <v>0.1355109166034006</v>
       </c>
       <c r="AI2">
-        <v>0.1878889900642708</v>
+        <v>0.2104993702391853</v>
       </c>
       <c r="AJ2">
-        <v>-0.2241662554685429</v>
+        <v>-0.308259869703529</v>
       </c>
       <c r="AK2">
-        <v>-0.3671861043297209</v>
+        <v>-0.6688373884496829</v>
       </c>
       <c r="AL2">
-        <v>1.358</v>
+        <v>1.464</v>
       </c>
       <c r="AM2">
-        <v>1.219</v>
+        <v>1.36</v>
       </c>
       <c r="AN2">
-        <v>1.255866927521057</v>
+        <v>1.394686484802635</v>
       </c>
       <c r="AO2">
-        <v>59.98600883652431</v>
+        <v>47.68442622950819</v>
       </c>
       <c r="AP2">
-        <v>-1.468229810536452</v>
+        <v>-2.096735744834753</v>
       </c>
       <c r="AQ2">
-        <v>66.82608695652175</v>
+        <v>51.33088235294117</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0138</v>
+        <v>-0.163</v>
       </c>
       <c r="E3">
-        <v>-0.193</v>
+        <v>-0.07980000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1770353302611367</v>
+        <v>0.1702992242334688</v>
       </c>
       <c r="H3">
-        <v>0.1770353302611367</v>
+        <v>0.1702992242334688</v>
       </c>
       <c r="I3">
-        <v>0.160063715484629</v>
+        <v>0.07794606575544885</v>
       </c>
       <c r="J3">
-        <v>0.1075363463204226</v>
+        <v>0.07704162828360292</v>
       </c>
       <c r="K3">
-        <v>24.3</v>
+        <v>21.4</v>
       </c>
       <c r="L3">
-        <v>0.09331797235023043</v>
+        <v>0.07905430365718508</v>
       </c>
       <c r="M3">
-        <v>11.1196</v>
+        <v>14.5352</v>
       </c>
       <c r="N3">
-        <v>0.03107769703745109</v>
+        <v>0.03635617808904452</v>
       </c>
       <c r="O3">
-        <v>0.45759670781893</v>
+        <v>0.6792149532710281</v>
       </c>
       <c r="P3">
-        <v>5.7996</v>
+        <v>13.5682</v>
       </c>
       <c r="Q3">
-        <v>0.01620905533817775</v>
+        <v>0.03393746873436718</v>
       </c>
       <c r="R3">
-        <v>0.2386666666666667</v>
+        <v>0.6340280373831776</v>
       </c>
       <c r="S3">
-        <v>5.32</v>
+        <v>0.9670000000000005</v>
       </c>
       <c r="T3">
-        <v>0.4784344760602899</v>
+        <v>0.06652815234740496</v>
       </c>
       <c r="U3">
-        <v>76.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="V3">
-        <v>0.2149245388485187</v>
+        <v>0.1605802901450726</v>
       </c>
       <c r="W3">
-        <v>0.2219178082191781</v>
+        <v>0.18337617823479</v>
       </c>
       <c r="X3">
-        <v>0.05819642609419479</v>
+        <v>0.05378572899931522</v>
       </c>
       <c r="Y3">
-        <v>0.1637213821249833</v>
+        <v>0.1295904492354748</v>
       </c>
       <c r="Z3">
-        <v>6.618032356653323</v>
+        <v>3.682993197278912</v>
       </c>
       <c r="AA3">
-        <v>0.7116790194648343</v>
+        <v>0.2837437928758001</v>
       </c>
       <c r="AB3">
-        <v>0.05049610635666599</v>
+        <v>0.04432096532828639</v>
       </c>
       <c r="AC3">
-        <v>0.6611829131081682</v>
+        <v>0.2394228275475138</v>
       </c>
       <c r="AD3">
-        <v>120.5</v>
+        <v>141.8</v>
       </c>
       <c r="AE3">
-        <v>0.947042439013063</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>121.4470424390131</v>
+        <v>141.8</v>
       </c>
       <c r="AG3">
-        <v>44.54704243901305</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.2534121897152196</v>
+        <v>0.2618168389955687</v>
       </c>
       <c r="AI3">
-        <v>0.4960118824766417</v>
+        <v>0.6181342632955537</v>
       </c>
       <c r="AJ3">
-        <v>0.1107179567394618</v>
+        <v>0.1625471302890658</v>
       </c>
       <c r="AK3">
-        <v>0.2652445782437015</v>
+        <v>0.4697336561743342</v>
       </c>
       <c r="AL3">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AM3">
-        <v>1.181</v>
+        <v>1.284</v>
       </c>
       <c r="AN3">
-        <v>2.270586018466177</v>
+        <v>3.244851258581236</v>
       </c>
       <c r="AO3">
-        <v>34.58333333333334</v>
+        <v>15.62962962962963</v>
       </c>
       <c r="AP3">
-        <v>0.8394015910874892</v>
+        <v>1.775743707093822</v>
       </c>
       <c r="AQ3">
-        <v>35.13971210838272</v>
+        <v>16.43302180685358</v>
       </c>
     </row>
     <row r="4">
@@ -859,40 +859,40 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.1758807588075881</v>
+        <v>0.15435</v>
       </c>
       <c r="H4">
-        <v>0.1758807588075881</v>
+        <v>0.1515</v>
       </c>
       <c r="I4">
-        <v>0.1392953929539295</v>
+        <v>0.09275</v>
       </c>
       <c r="J4">
-        <v>0.0858059620596206</v>
+        <v>0.06092885638297872</v>
       </c>
       <c r="K4">
-        <v>3.08</v>
+        <v>2.47</v>
       </c>
       <c r="L4">
-        <v>0.08346883468834689</v>
+        <v>0.06175000000000001</v>
       </c>
       <c r="M4">
-        <v>0.7942199999999999</v>
+        <v>0.97356</v>
       </c>
       <c r="N4">
-        <v>0.007299816176470588</v>
+        <v>0.01187268292682927</v>
       </c>
       <c r="O4">
-        <v>0.2578636363636364</v>
+        <v>0.3941538461538461</v>
       </c>
       <c r="P4">
-        <v>0.7942199999999999</v>
+        <v>0.97356</v>
       </c>
       <c r="Q4">
-        <v>0.007299816176470588</v>
+        <v>0.01187268292682927</v>
       </c>
       <c r="R4">
-        <v>0.2578636363636364</v>
+        <v>0.3941538461538461</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,31 +901,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>17.1</v>
       </c>
       <c r="V4">
-        <v>0.1838235294117647</v>
+        <v>0.2085365853658537</v>
       </c>
       <c r="W4">
-        <v>0.1241935483870968</v>
+        <v>0.08233333333333334</v>
       </c>
       <c r="X4">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y4">
-        <v>0.0734301348668245</v>
+        <v>0.03733265392959267</v>
       </c>
       <c r="Z4">
-        <v>5.255661586668564</v>
+        <v>4.026170105686965</v>
       </c>
       <c r="AA4">
-        <v>0.4509670987038882</v>
+        <v>0.2453099401428434</v>
       </c>
       <c r="AB4">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC4">
-        <v>0.4002036851836159</v>
+        <v>0.2003092607391027</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-20</v>
+        <v>-17.1</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.2252252252252252</v>
+        <v>-0.263482280431433</v>
       </c>
       <c r="AK4">
-        <v>-2</v>
+        <v>-1.132450331125828</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-3.115264797507788</v>
+        <v>-3.143382352941177</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Advance Create Co., Ltd. (TSE:8798)</t>
+          <t>SBI Insurance Group Co., Ltd. (TSE:7326)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,38 +980,32 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0679</v>
-      </c>
-      <c r="E5">
-        <v>0.0546</v>
-      </c>
       <c r="G5">
-        <v>0.1668404588112617</v>
+        <v>0.04589468099217403</v>
       </c>
       <c r="H5">
-        <v>0.1668404588112617</v>
+        <v>0.04589468099217403</v>
       </c>
       <c r="I5">
-        <v>0.129446562255575</v>
+        <v>0.04483353229871335</v>
       </c>
       <c r="J5">
-        <v>0.0858551558207916</v>
+        <v>0.04270939677969192</v>
       </c>
       <c r="K5">
-        <v>7.81</v>
+        <v>50.8</v>
       </c>
       <c r="L5">
-        <v>0.08143899895724713</v>
+        <v>0.06738294203475262</v>
       </c>
       <c r="M5">
-        <v>1.76</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.009805013927576602</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.2253521126760563</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1023,79 +1017,70 @@
         <v>-0</v>
       </c>
       <c r="S5">
-        <v>1.76</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>6.27</v>
+        <v>286</v>
       </c>
       <c r="V5">
-        <v>0.03493036211699164</v>
+        <v>0.8988057825267128</v>
       </c>
       <c r="W5">
-        <v>0.1967254408060453</v>
+        <v>0.1290978398983481</v>
       </c>
       <c r="X5">
-        <v>0.05138016052159618</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y5">
-        <v>0.1453452802844492</v>
+        <v>0.08409716049460747</v>
       </c>
       <c r="Z5">
-        <v>3.377310756027204</v>
+        <v>4.482164090368609</v>
       </c>
       <c r="AA5">
-        <v>0.2899595412139511</v>
+        <v>0.1914305245672398</v>
       </c>
       <c r="AB5">
-        <v>0.05062049123591746</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC5">
-        <v>0.2393390499780337</v>
+        <v>0.1464298451634992</v>
       </c>
       <c r="AD5">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02537339845179423</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.055373398451795</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-1.214626601548205</v>
+        <v>-286</v>
       </c>
       <c r="AH5">
-        <v>0.02739217669667809</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.1063049879998708</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.006812822490118826</v>
+        <v>-8.881987577639755</v>
       </c>
       <c r="AK5">
-        <v>-0.02942026440758202</v>
+        <v>-2.220496894409937</v>
       </c>
       <c r="AL5">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.009000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.3140021224795556</v>
-      </c>
-      <c r="AO5">
-        <v>335.1351351351352</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-0.07582412145253793</v>
-      </c>
-      <c r="AQ5">
-        <v>-1377.777777777778</v>
+        <v>-5.945945945945946</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1091,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBI Insurance Group Co., Ltd. (TSE:7326)</t>
+          <t>Advance Create Co., Ltd. (TSE:8798)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1114,238 +1099,122 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.0764</v>
+      </c>
+      <c r="E6">
+        <v>0.0168</v>
+      </c>
       <c r="G6">
-        <v>0.04603330068560234</v>
+        <v>0.1516064257028112</v>
       </c>
       <c r="H6">
-        <v>0.04603330068560234</v>
+        <v>0.1516064257028112</v>
       </c>
       <c r="I6">
-        <v>0.03640222004570683</v>
+        <v>0.1125577201022262</v>
       </c>
       <c r="J6">
-        <v>0.03132625830641417</v>
+        <v>0.07665469348500327</v>
       </c>
       <c r="K6">
-        <v>27.7</v>
+        <v>6.64</v>
       </c>
       <c r="L6">
-        <v>0.04521710741103493</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M6">
-        <v>0.509</v>
+        <v>5.1192</v>
       </c>
       <c r="N6">
-        <v>0.002288669064748201</v>
+        <v>0.02562162162162162</v>
       </c>
       <c r="O6">
-        <v>0.01837545126353791</v>
+        <v>0.7709638554216868</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>5.1192</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.02562162162162162</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.7709638554216868</v>
       </c>
       <c r="S6">
-        <v>0.509</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>193.4</v>
+        <v>25</v>
       </c>
       <c r="V6">
-        <v>0.8696043165467626</v>
+        <v>0.1251251251251251</v>
       </c>
       <c r="W6">
-        <v>0.08147058823529411</v>
+        <v>0.1562352941176471</v>
       </c>
       <c r="X6">
-        <v>0.05076341352027228</v>
+        <v>0.04685046186090998</v>
       </c>
       <c r="Y6">
-        <v>0.03070717471502184</v>
+        <v>0.1093848322567371</v>
       </c>
       <c r="Z6">
-        <v>7.85183286336837</v>
+        <v>2.412717323182944</v>
       </c>
       <c r="AA6">
-        <v>0.245968544456669</v>
+        <v>0.1849461068745461</v>
       </c>
       <c r="AB6">
-        <v>0.05076341352027228</v>
+        <v>0.04482027006517601</v>
       </c>
       <c r="AC6">
-        <v>0.1952051309363968</v>
+        <v>0.1401258368093701</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.02125538909135998</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>14.92125538909136</v>
       </c>
       <c r="AG6">
-        <v>-193.4</v>
+        <v>-10.07874461090864</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.0694912823700332</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.2190396419423707</v>
       </c>
       <c r="AJ6">
-        <v>-6.66896551724138</v>
+        <v>-0.05312396120423389</v>
       </c>
       <c r="AK6">
-        <v>-0.9617105917454003</v>
+        <v>-0.2337303151303503</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.9857757194839564</v>
+      </c>
+      <c r="AO6">
+        <v>98.24561403508771</v>
       </c>
       <c r="AP6">
-        <v>-5.878419452887538</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chuou International Group Co., Ltd. (TSE:7170)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>0.07003205128205128</v>
-      </c>
-      <c r="H7">
-        <v>0.07003205128205128</v>
-      </c>
-      <c r="I7">
-        <v>0.01939102564102564</v>
-      </c>
-      <c r="J7">
-        <v>0.01621169942809529</v>
-      </c>
-      <c r="K7">
-        <v>0.492</v>
-      </c>
-      <c r="L7">
-        <v>0.07884615384615384</v>
-      </c>
-      <c r="M7">
-        <v>0.696</v>
-      </c>
-      <c r="N7">
-        <v>0.1567567567567567</v>
-      </c>
-      <c r="O7">
-        <v>1.414634146341463</v>
-      </c>
-      <c r="P7">
-        <v>-0</v>
-      </c>
-      <c r="Q7">
-        <v>-0</v>
-      </c>
-      <c r="R7">
-        <v>-0</v>
-      </c>
-      <c r="S7">
-        <v>0.696</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0.983</v>
-      </c>
-      <c r="V7">
-        <v>0.2213963963963964</v>
-      </c>
-      <c r="W7">
-        <v>0.1088495575221239</v>
-      </c>
-      <c r="X7">
-        <v>0.1060033681518234</v>
-      </c>
-      <c r="Y7">
-        <v>0.002846189370300539</v>
-      </c>
-      <c r="Z7">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="AA7">
-        <v>0.007010464617554722</v>
-      </c>
-      <c r="AB7">
-        <v>0.05189602317815321</v>
-      </c>
-      <c r="AC7">
-        <v>-0.04488555856059849</v>
-      </c>
-      <c r="AD7">
-        <v>11.2</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>11.2</v>
-      </c>
-      <c r="AG7">
-        <v>10.217</v>
-      </c>
-      <c r="AH7">
-        <v>0.7161125319693094</v>
-      </c>
-      <c r="AI7">
-        <v>0.7004377736085053</v>
-      </c>
-      <c r="AJ7">
-        <v>0.6970730708876304</v>
-      </c>
-      <c r="AK7">
-        <v>0.6808156193776238</v>
-      </c>
-      <c r="AL7">
-        <v>0.121</v>
-      </c>
-      <c r="AM7">
-        <v>0.047</v>
-      </c>
-      <c r="AN7">
-        <v>24.13793103448275</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>22.01939655172414</v>
-      </c>
-      <c r="AQ7">
-        <v>2.574468085106383</v>
+        <v>-0.6668041423029203</v>
+      </c>
+      <c r="AQ6">
+        <v>147.3684210526315</v>
       </c>
     </row>
   </sheetData>
